--- a/data/trans_orig/P34D2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34D2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC0FC0E8-29A9-4B0D-B917-3194384A1600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED98EEAD-CD8B-4E2B-B306-F16B8D292E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{40DF52C8-CFBA-47C9-A318-5B37051545F5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13EB98D1-5251-4CF4-9278-38654C18A021}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>29,09%</t>
+    <t>35,43%</t>
   </si>
   <si>
     <t>0%</t>
@@ -86,13 +86,13 @@
     <t>6,01%</t>
   </si>
   <si>
-    <t>28,55%</t>
+    <t>26,73%</t>
   </si>
   <si>
     <t>92,72%</t>
   </si>
   <si>
-    <t>70,91%</t>
+    <t>64,57%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,7 +107,7 @@
     <t>93,99%</t>
   </si>
   <si>
-    <t>71,45%</t>
+    <t>73,27%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -116,55 +116,55 @@
     <t>3,37%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>91,47%</t>
   </si>
   <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -173,55 +173,55 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>95,63%</t>
   </si>
   <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -233,28 +233,28 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>8,05%</t>
+    <t>9,09%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>13,76%</t>
+    <t>13,24%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
   </si>
   <si>
     <t>97,42%</t>
   </si>
   <si>
-    <t>91,95%</t>
+    <t>90,91%</t>
   </si>
   <si>
     <t>99,85%</t>
@@ -263,16 +263,16 @@
     <t>96,1%</t>
   </si>
   <si>
-    <t>86,24%</t>
+    <t>86,76%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -281,10 +281,10 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>5,27%</t>
@@ -293,31 +293,31 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>18,94%</t>
+    <t>19,51%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
   </si>
   <si>
     <t>96,22%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>94,73%</t>
   </si>
   <si>
-    <t>81,06%</t>
+    <t>80,49%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -326,64 +326,64 @@
     <t>95,77%</t>
   </si>
   <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCA0192-2DDE-4AE4-A402-FCA90026AFD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823A8F73-3FF9-4E93-8D1B-1160035BC4A2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1745,7 +1745,7 @@
         <v>492</v>
       </c>
       <c r="D20" s="7">
-        <v>625928</v>
+        <v>625929</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>107</v>
@@ -1796,7 +1796,7 @@
         <v>510</v>
       </c>
       <c r="D21" s="7">
-        <v>645028</v>
+        <v>645029</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>

--- a/data/trans_orig/P34D2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34D2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED98EEAD-CD8B-4E2B-B306-F16B8D292E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DA6A2ED-6BB3-4366-9E86-73760855157E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13EB98D1-5251-4CF4-9278-38654C18A021}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E83A243-A18A-45B1-B0F8-758FBBB787C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>7,28%</t>
@@ -110,7 +110,7 @@
     <t>73,27%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,37%</t>
@@ -167,7 +167,7 @@
     <t>98,22%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,87%</t>
@@ -224,7 +224,7 @@
     <t>98,97%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>2,58%</t>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823A8F73-3FF9-4E93-8D1B-1160035BC4A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B904D821-B068-4BBC-B8CA-83184F4B451A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P34D2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34D2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DA6A2ED-6BB3-4366-9E86-73760855157E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4735DBC7-E6D6-4270-957F-038C8DB1F538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E83A243-A18A-45B1-B0F8-758FBBB787C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECC60743-6D10-415C-AB80-3791E877619F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="117">
-  <si>
-    <t>Población según el número de veces al día que realizan alguna actividad física intensa o vigorosa en 2023 (Tasa respuesta: 8,94%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="165">
+  <si>
+    <t>Población según el número de veces al día que realizan alguna actividad física intensa o vigorosa en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,322 +68,466 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>7,28%</t>
+    <t>1,28%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>35,43%</t>
+    <t>5,51%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
     <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -798,8 +942,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B904D821-B068-4BBC-B8CA-83184F4B451A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158D79C3-AEEA-4B63-9694-371A84120BC4}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -988,13 +1132,13 @@
         <v>3780</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -1003,478 +1147,476 @@
         <v>20460</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>101</v>
+      </c>
+      <c r="D6" s="7">
+        <v>83993</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7">
+        <v>237</v>
+      </c>
+      <c r="I6" s="7">
+        <v>126953</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="7">
+        <v>338</v>
+      </c>
+      <c r="N6" s="7">
+        <v>210946</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7">
-        <v>17989</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3780</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="7">
-        <v>23</v>
-      </c>
-      <c r="N6" s="7">
-        <v>21769</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="C7" s="7">
+        <v>118</v>
+      </c>
+      <c r="D7" s="7">
+        <v>101982</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="7">
+        <v>243</v>
+      </c>
+      <c r="I7" s="7">
+        <v>130733</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="7">
+        <v>361</v>
+      </c>
+      <c r="N7" s="7">
+        <v>232715</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="7">
         <v>3584</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="7">
         <v>4</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I8" s="7">
         <v>2810</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="7">
+      <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="7">
         <v>7</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N8" s="7">
         <v>6394</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>83</v>
-      </c>
-      <c r="D8" s="7">
-        <v>102678</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="7">
-        <v>37</v>
-      </c>
-      <c r="I8" s="7">
-        <v>30136</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="7">
-        <v>120</v>
-      </c>
-      <c r="N8" s="7">
-        <v>132814</v>
-      </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
+      <c r="B9" s="5">
+        <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9" s="7">
-        <v>106262</v>
+        <v>102678</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I9" s="7">
-        <v>32946</v>
+        <v>30136</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="N9" s="7">
-        <v>139208</v>
+        <v>132814</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>526</v>
       </c>
       <c r="D10" s="7">
-        <v>4020</v>
+        <v>443561</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>953</v>
       </c>
       <c r="I10" s="7">
-        <v>3483</v>
+        <v>558939</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>1479</v>
       </c>
       <c r="N10" s="7">
-        <v>7502</v>
+        <v>1002500</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="5">
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>612</v>
+      </c>
+      <c r="D11" s="7">
+        <v>549823</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="7">
+        <v>994</v>
+      </c>
+      <c r="I11" s="7">
+        <v>591885</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1606</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1141708</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4020</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3483</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="7">
+        <v>8</v>
+      </c>
+      <c r="N12" s="7">
+        <v>7502</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C13" s="7">
         <v>154</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D13" s="7">
         <v>211301</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="E13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="7">
         <v>83</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I13" s="7">
         <v>76134</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="J13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="7">
         <v>237</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N13" s="7">
         <v>287435</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
-        <v>158</v>
-      </c>
-      <c r="D12" s="7">
-        <v>215321</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>87</v>
-      </c>
-      <c r="I12" s="7">
-        <v>79617</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="7">
-        <v>245</v>
-      </c>
-      <c r="N12" s="7">
-        <v>294937</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2894</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1866</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4760</v>
-      </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="7">
+        <v>806</v>
+      </c>
+      <c r="D14" s="7">
+        <v>823927</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="7">
-        <v>109395</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
-        <v>46</v>
+        <v>1429</v>
       </c>
       <c r="I14" s="7">
-        <v>45943</v>
+        <v>979857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
-        <v>129</v>
+        <v>2235</v>
       </c>
       <c r="N14" s="7">
-        <v>155339</v>
+        <v>1803785</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1483,102 +1625,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>86</v>
+        <v>964</v>
       </c>
       <c r="D15" s="7">
-        <v>112289</v>
+        <v>1039248</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
-        <v>48</v>
+        <v>1516</v>
       </c>
       <c r="I15" s="7">
-        <v>47809</v>
+        <v>1059474</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
-        <v>134</v>
+        <v>2480</v>
       </c>
       <c r="N15" s="7">
-        <v>160099</v>
+        <v>2098722</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>7293</v>
+        <v>2894</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>4510</v>
+        <v>1866</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>11803</v>
+        <v>4760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,274 +1729,582 @@
         <v>1</v>
       </c>
       <c r="C17" s="7">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7">
-        <v>185875</v>
+        <v>109395</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="I17" s="7">
-        <v>81091</v>
+        <v>45943</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="N17" s="7">
-        <v>266966</v>
+        <v>155339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>589</v>
+      </c>
+      <c r="D18" s="7">
+        <v>616322</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="7">
+        <v>998</v>
+      </c>
+      <c r="I18" s="7">
+        <v>825825</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1587</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1442146</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
-        <v>163</v>
-      </c>
-      <c r="D18" s="7">
-        <v>193168</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>90</v>
-      </c>
-      <c r="I18" s="7">
-        <v>85601</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="7">
-        <v>253</v>
-      </c>
-      <c r="N18" s="7">
-        <v>278769</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="C19" s="7">
+        <v>675</v>
+      </c>
+      <c r="D19" s="7">
+        <v>728611</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1046</v>
+      </c>
+      <c r="I19" s="7">
+        <v>873634</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1721</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1602245</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7">
+        <v>7293</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="7">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>2</v>
-      </c>
-      <c r="C19" s="7">
-        <v>18</v>
-      </c>
-      <c r="D19" s="7">
-        <v>19100</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="7">
-        <v>13</v>
-      </c>
-      <c r="I19" s="7">
-        <v>12669</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M19" s="7">
-        <v>31</v>
-      </c>
-      <c r="N19" s="7">
-        <v>31769</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
-        <v>492</v>
-      </c>
-      <c r="D20" s="7">
-        <v>625929</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="7">
-        <v>259</v>
-      </c>
       <c r="I20" s="7">
-        <v>237084</v>
+        <v>4510</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>751</v>
+        <v>10</v>
       </c>
       <c r="N20" s="7">
-        <v>863012</v>
+        <v>11803</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>156</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185874</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="7">
+        <v>87</v>
+      </c>
+      <c r="I21" s="7">
+        <v>81092</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M21" s="7">
+        <v>243</v>
+      </c>
+      <c r="N21" s="7">
+        <v>266966</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>843</v>
+      </c>
+      <c r="D22" s="7">
+        <v>772236</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1471</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1062068</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2314</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1834304</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="7">
-        <v>510</v>
-      </c>
-      <c r="D21" s="7">
-        <v>645029</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>272</v>
-      </c>
-      <c r="I21" s="7">
-        <v>249753</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>782</v>
-      </c>
-      <c r="N21" s="7">
-        <v>894781</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>116</v>
+      <c r="C23" s="7">
+        <v>1006</v>
+      </c>
+      <c r="D23" s="7">
+        <v>965403</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1561</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1147669</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2567</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2113073</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19100</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="7">
+        <v>13</v>
+      </c>
+      <c r="I24" s="7">
+        <v>12669</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M24" s="7">
+        <v>31</v>
+      </c>
+      <c r="N24" s="7">
+        <v>31769</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>492</v>
+      </c>
+      <c r="D25" s="7">
+        <v>625929</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="7">
+        <v>259</v>
+      </c>
+      <c r="I25" s="7">
+        <v>237084</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M25" s="7">
+        <v>751</v>
+      </c>
+      <c r="N25" s="7">
+        <v>863013</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2865</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2740039</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5088</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3553642</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7953</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6293682</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3375</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3385068</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5360</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3803395</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="7">
+        <v>8735</v>
+      </c>
+      <c r="N27" s="7">
+        <v>7188463</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
